--- a/test/matrix.xlsx
+++ b/test/matrix.xlsx
@@ -28,16 +28,16 @@
     <t xml:space="preserve">supplierServiceType</t>
   </si>
   <si>
-    <t xml:space="preserve">taxonomyTypeLetter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taxonomyTypeParcel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taxonomyTypeLetterId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taxonomyTypeParcelId</t>
+    <t xml:space="preserve">standardServiceTypeLetter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standardServiceTypeParcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standardServiceTypeLetterKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standardServiceTypeParcelKey</t>
   </si>
   <si>
     <t xml:space="preserve">USPS</t>
@@ -362,7 +362,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -385,13 +385,6 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -401,27 +394,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -450,13 +428,9 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -479,10 +453,10 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.01953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.17"/>
@@ -492,7 +466,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="18.33"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -512,7 +486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
@@ -532,7 +506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
@@ -552,7 +526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
@@ -572,7 +546,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>6</v>
       </c>
@@ -592,7 +566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>6</v>
       </c>
@@ -612,7 +586,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>6</v>
       </c>
@@ -632,7 +606,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>6</v>
       </c>
@@ -652,7 +626,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>6</v>
       </c>
@@ -666,7 +640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>6</v>
       </c>
@@ -680,7 +654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>32</v>
       </c>
@@ -700,7 +674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>32</v>
       </c>
@@ -720,7 +694,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>32</v>
       </c>
@@ -740,7 +714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>32</v>
       </c>
@@ -760,7 +734,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>32</v>
       </c>
@@ -780,7 +754,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>32</v>
       </c>
@@ -800,7 +774,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>32</v>
       </c>
@@ -820,7 +794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>32</v>
       </c>
@@ -840,7 +814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>32</v>
       </c>
@@ -854,7 +828,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>32</v>
       </c>
@@ -868,7 +842,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>32</v>
       </c>
@@ -888,7 +862,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>32</v>
       </c>
@@ -908,7 +882,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>32</v>
       </c>
@@ -928,7 +902,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>32</v>
       </c>
@@ -948,7 +922,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>61</v>
       </c>
@@ -968,7 +942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>61</v>
       </c>
@@ -988,7 +962,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>61</v>
       </c>
@@ -1008,7 +982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>61</v>
       </c>
@@ -1028,7 +1002,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>61</v>
       </c>
@@ -1048,7 +1022,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>61</v>
       </c>
@@ -1068,7 +1042,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>61</v>
       </c>
@@ -1082,7 +1056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>61</v>
       </c>
@@ -1096,7 +1070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>61</v>
       </c>
@@ -1110,7 +1084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>61</v>
       </c>
@@ -1124,7 +1098,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>61</v>
       </c>
@@ -1138,7 +1112,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>61</v>
       </c>
@@ -1152,7 +1126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>61</v>
       </c>
@@ -1166,7 +1140,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>61</v>
       </c>
@@ -1180,7 +1154,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>61</v>
       </c>
@@ -1194,7 +1168,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>61</v>
       </c>
@@ -1211,7 +1185,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>61</v>
       </c>
@@ -1231,7 +1205,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>61</v>
       </c>
@@ -1251,7 +1225,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>61</v>
       </c>
@@ -1271,7 +1245,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>61</v>
       </c>
@@ -1291,7 +1265,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>61</v>
       </c>
@@ -1311,7 +1285,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>61</v>
       </c>
@@ -1331,7 +1305,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>61</v>
       </c>
@@ -1351,7 +1325,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>61</v>
       </c>
@@ -1371,7 +1345,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>61</v>
       </c>
@@ -1385,7 +1359,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>61</v>
       </c>
@@ -1399,7 +1373,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>61</v>
       </c>
@@ -1413,7 +1387,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>61</v>
       </c>
@@ -1427,7 +1401,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>61</v>
       </c>
@@ -1441,7 +1415,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>61</v>
       </c>
@@ -1461,7 +1435,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>61</v>
       </c>
@@ -1481,7 +1455,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>61</v>
       </c>
@@ -1501,7 +1475,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>61</v>
       </c>
@@ -1521,7 +1495,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>61</v>
       </c>
@@ -1541,11 +1515,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="0" t="s">
         <v>109</v>
       </c>
       <c r="D59" s="0" t="s">
